--- a/wh1602_pid.xlsx
+++ b/wh1602_pid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruaminovil\Desktop\moe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BBD5BC-1F37-4317-B1E2-D7E4C6AE10C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D80EB-26F0-4944-BC33-3C66328BD45C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="225">
   <si>
     <t>Z</t>
   </si>
@@ -623,9 +623,6 @@
   </si>
   <si>
     <t>не меняется давление</t>
-  </si>
-  <si>
-    <t>если расход текущий&gt;error_flow_speed</t>
   </si>
   <si>
     <t>если соленоид закрыт и в работе то +</t>
@@ -1076,30 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,7 +1086,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
@@ -2510,8 +2507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23:AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2531,26 +2528,26 @@
       <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
+      <c r="B1" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
       <c r="AD1" t="s">
         <v>110</v>
       </c>
@@ -2563,13 +2560,13 @@
         <v>190</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>188</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28" t="s">
@@ -2597,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>119</v>
@@ -2809,7 +2806,7 @@
         <v>168</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K5" s="29" t="s">
         <v>188</v>
@@ -2818,7 +2815,7 @@
         <v>49</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N5" s="29" t="s">
         <v>5</v>
@@ -2836,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T5" s="31"/>
       <c r="U5" s="25" t="s">
@@ -2849,7 +2846,7 @@
         <v>162</v>
       </c>
       <c r="X5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -2912,7 +2909,7 @@
         <v>84</v>
       </c>
       <c r="T6" s="31"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="55" t="s">
         <v>180</v>
       </c>
       <c r="V6" s="25" t="s">
@@ -2974,7 +2971,7 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
       <c r="T7" s="31"/>
-      <c r="U7" s="67" t="s">
+      <c r="U7" s="55" t="s">
         <v>182</v>
       </c>
       <c r="V7" s="31"/>
@@ -2998,29 +2995,29 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
+      <c r="A8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
       <c r="W8" s="27" t="s">
         <v>154</v>
       </c>
@@ -3051,19 +3048,19 @@
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="57">
-        <v>0</v>
-      </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57">
-        <v>0</v>
-      </c>
-      <c r="N9" s="57"/>
+      <c r="K9" s="62">
+        <v>0</v>
+      </c>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62">
+        <v>0</v>
+      </c>
+      <c r="N9" s="62"/>
       <c r="O9" s="34"/>
-      <c r="P9" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="57"/>
+      <c r="P9" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="62"/>
       <c r="R9" s="29"/>
       <c r="S9" s="32"/>
       <c r="T9" s="31"/>
@@ -3106,7 +3103,7 @@
         <v>189</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>49</v>
@@ -3117,20 +3114,20 @@
       <c r="J10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
       <c r="O10" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
       <c r="R10" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="S10" s="32" t="s">
         <v>204</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>205</v>
       </c>
       <c r="T10" s="31"/>
       <c r="W10" s="27" t="s">
@@ -3157,28 +3154,28 @@
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
-      <c r="G11" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61">
-        <v>0</v>
-      </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61">
-        <v>0</v>
-      </c>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61">
-        <v>0</v>
-      </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61">
+      <c r="G11" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63">
+        <v>0</v>
+      </c>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63">
+        <v>0</v>
+      </c>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63">
+        <v>0</v>
+      </c>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63">
         <v>1</v>
       </c>
-      <c r="P11" s="61"/>
+      <c r="P11" s="63"/>
       <c r="Q11" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R11" s="29" t="s">
         <v>119</v>
@@ -3204,27 +3201,27 @@
         <v>190</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>188</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
       <c r="Q12" s="29" t="s">
         <v>184</v>
       </c>
@@ -3261,19 +3258,19 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="57">
-        <v>0</v>
-      </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57">
-        <v>0</v>
-      </c>
-      <c r="N13" s="57"/>
+      <c r="K13" s="62">
+        <v>0</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62">
+        <v>0</v>
+      </c>
+      <c r="N13" s="62"/>
       <c r="O13" s="38"/>
-      <c r="P13" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="57"/>
+      <c r="P13" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="62"/>
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
       <c r="T13" s="31"/>
@@ -3297,7 +3294,7 @@
         <v>188</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>187</v>
@@ -3311,20 +3308,20 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
       <c r="O14" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
       <c r="R14" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T14" s="31"/>
       <c r="U14" s="24" t="s">
@@ -3343,26 +3340,26 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
       <c r="V15" s="31"/>
@@ -3421,10 +3418,10 @@
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="M16" s="30" t="s">
         <v>204</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>205</v>
       </c>
       <c r="N16" s="30" t="s">
         <v>119</v>
@@ -3496,10 +3493,10 @@
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="M17" s="30" t="s">
         <v>204</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>205</v>
       </c>
       <c r="N17" s="30" t="s">
         <v>119</v>
@@ -3546,7 +3543,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>137</v>
@@ -3571,10 +3568,10 @@
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" s="30" t="s">
         <v>204</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>205</v>
       </c>
       <c r="N18" s="30" t="s">
         <v>119</v>
@@ -3612,7 +3609,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>136</v>
@@ -3637,10 +3634,10 @@
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" s="30" t="s">
         <v>204</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>205</v>
       </c>
       <c r="N19" s="30" t="s">
         <v>119</v>
@@ -3680,7 +3677,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>5</v>
@@ -3730,7 +3727,7 @@
         <v>196</v>
       </c>
       <c r="V20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W20" t="s">
         <v>103</v>
@@ -3751,7 +3748,7 @@
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>187</v>
@@ -3763,7 +3760,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>187</v>
@@ -3802,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T21" s="31"/>
       <c r="U21" s="25" t="s">
@@ -3828,26 +3825,26 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
       <c r="W22" s="27" t="s">
         <v>179</v>
       </c>
@@ -3855,7 +3852,7 @@
         <v>141</v>
       </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z22">
         <v>5000</v>
@@ -3864,7 +3861,7 @@
         <v>109</v>
       </c>
       <c r="AC22" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3875,7 +3872,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>1</v>
@@ -3930,7 +3927,7 @@
         <v>191</v>
       </c>
       <c r="W23" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X23" t="s">
         <v>142</v>
@@ -3949,9 +3946,6 @@
       </c>
       <c r="AD23">
         <v>4</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -4035,7 +4029,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="30">
         <v>3</v>
@@ -4113,7 +4107,7 @@
         <v>188</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>187</v>
@@ -4122,7 +4116,7 @@
         <v>49</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H26" s="30" t="s">
         <v>188</v>
@@ -4146,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P26" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
       <c r="S26" s="28"/>
       <c r="U26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W26" s="27" t="s">
         <v>112</v>
@@ -4177,7 +4171,7 @@
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>188</v>
@@ -4186,7 +4180,7 @@
         <v>49</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>4</v>
@@ -4204,7 +4198,7 @@
         <v>15</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L27" s="28" t="s">
         <v>187</v>
@@ -4219,7 +4213,7 @@
         <v>27</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q27" s="29" t="s">
         <v>188</v>
@@ -4227,7 +4221,7 @@
       <c r="R27" s="28"/>
       <c r="S27" s="30"/>
       <c r="U27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W27" s="27" t="s">
         <v>156</v>
@@ -4294,43 +4288,43 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="W29" s="60" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="W29" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="X29" s="58" t="s">
+      <c r="X29" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="Y29" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="58">
+      <c r="Y29" s="65">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="65">
         <v>255</v>
       </c>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58" t="s">
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="AC29" s="59" t="s">
+      <c r="AC29" s="66" t="s">
         <v>80</v>
       </c>
       <c r="AD29">
@@ -4344,13 +4338,13 @@
       <c r="A30">
         <v>0</v>
       </c>
-      <c r="W30" s="60"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="59"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="66"/>
       <c r="AD30">
         <v>11</v>
       </c>
@@ -4359,37 +4353,37 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
       <c r="V31" s="8"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="59"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="66"/>
       <c r="AD31">
         <v>12</v>
       </c>
@@ -4405,7 +4399,7 @@
         <v>189</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>1</v>
@@ -4414,7 +4408,7 @@
         <v>75</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>5</v>
@@ -4422,7 +4416,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K32" s="33" t="s">
         <v>187</v>
@@ -4444,13 +4438,13 @@
       <c r="T32" s="31"/>
       <c r="U32" s="24"/>
       <c r="V32" s="8"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="59"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="66"/>
       <c r="AD32">
         <v>13</v>
       </c>
@@ -4461,7 +4455,7 @@
     <row r="33" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>1</v>
@@ -4470,7 +4464,7 @@
         <v>189</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="39"/>
@@ -4480,13 +4474,13 @@
         <v>184</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N33" s="33"/>
       <c r="O33" s="34"/>
@@ -4496,13 +4490,13 @@
       <c r="S33" s="51"/>
       <c r="T33" s="31"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="60"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="59"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="66"/>
       <c r="AD33">
         <v>14</v>
       </c>
@@ -4532,13 +4526,13 @@
       <c r="S34" s="34"/>
       <c r="T34" s="31"/>
       <c r="V34" s="8"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="59"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="66"/>
       <c r="AD34">
         <v>15</v>
       </c>
@@ -4757,29 +4751,29 @@
       <c r="AC40" s="31"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
+      <c r="A41" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
       <c r="V41" s="8"/>
       <c r="W41" s="27" t="s">
         <v>196</v>
@@ -4791,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="AC41" s="52" t="s">
         <v>197</v>
@@ -4813,19 +4807,19 @@
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
-      <c r="K42" s="63">
-        <v>0</v>
-      </c>
-      <c r="L42" s="64"/>
-      <c r="M42" s="63">
-        <v>0</v>
-      </c>
-      <c r="N42" s="64"/>
+      <c r="K42" s="56">
+        <v>0</v>
+      </c>
+      <c r="L42" s="57"/>
+      <c r="M42" s="56">
+        <v>0</v>
+      </c>
+      <c r="N42" s="57"/>
       <c r="O42" s="34"/>
-      <c r="P42" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="64"/>
+      <c r="P42" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="57"/>
       <c r="R42" s="29"/>
       <c r="S42" s="32"/>
       <c r="T42" s="31"/>
@@ -4853,7 +4847,7 @@
         <v>189</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H43" s="40" t="s">
         <v>49</v>
@@ -4864,31 +4858,31 @@
       <c r="J43" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="65"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="66"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="59"/>
       <c r="O43" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="66"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="59"/>
       <c r="R43" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="S43" s="32" t="s">
         <v>204</v>
-      </c>
-      <c r="S43" s="32" t="s">
-        <v>205</v>
       </c>
       <c r="T43" s="31"/>
       <c r="V43" s="8"/>
       <c r="W43" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X43" t="s">
         <v>83</v>
       </c>
       <c r="Z43" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AA43" s="53">
         <v>10000</v>
@@ -4908,7 +4902,7 @@
       <c r="E44" s="35"/>
       <c r="F44" s="42"/>
       <c r="G44" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H44" s="43" t="s">
         <v>49</v>
@@ -4923,13 +4917,13 @@
         <v>49</v>
       </c>
       <c r="L44" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M44" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N44" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O44" s="43"/>
       <c r="P44" s="43"/>
@@ -5023,36 +5017,29 @@
       <c r="A48" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="19"/>
+      <c r="B48" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="E48" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="I48" s="19" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="M48" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N48" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O48" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="P48" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q48" s="19" t="s">
         <v>17</v>
       </c>
       <c r="R48" s="2"/>
@@ -5109,27 +5096,13 @@
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B50" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>5</v>
-      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
       <c r="I50" s="19" t="s">
         <v>21</v>
       </c>
@@ -6043,18 +6016,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P42:Q43"/>
-    <mergeCell ref="M42:N43"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="A41:U41"/>
-    <mergeCell ref="B29:S29"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="B15:S15"/>
-    <mergeCell ref="G11:H12"/>
     <mergeCell ref="A8:U8"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="K9:L10"/>
@@ -6071,6 +6032,18 @@
     <mergeCell ref="I11:J12"/>
     <mergeCell ref="P9:Q10"/>
     <mergeCell ref="B22:S22"/>
+    <mergeCell ref="P13:Q14"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="B15:S15"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="P42:Q43"/>
+    <mergeCell ref="M42:N43"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="A41:U41"/>
+    <mergeCell ref="B29:S29"/>
+    <mergeCell ref="A31:S31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
